--- a/cmTemplate.xlsx
+++ b/cmTemplate.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="K-Matrix " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="K-Matrix " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'K-Matrix '!$A$1:$S$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'K-Matrix '!$A$1:$S$6</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,78 +23,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frame Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle Time [ms]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launch Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Byte No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Bit No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Length [Bit]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal Default</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Frame Name</t>
+  </si>
+  <si>
+    <t>Cycle Time [ms]</t>
+  </si>
+  <si>
+    <t>Launch Type</t>
+  </si>
+  <si>
+    <t>Launch Parameter</t>
+  </si>
+  <si>
+    <t>Signal Byte No.</t>
+  </si>
+  <si>
+    <t>Signal Bit No.</t>
+  </si>
+  <si>
+    <t>Signal Name</t>
+  </si>
+  <si>
+    <t>Signal Function</t>
+  </si>
+  <si>
+    <t>Signal Length [Bit]</t>
+  </si>
+  <si>
+    <t>Signal Default</t>
   </si>
   <si>
     <t xml:space="preserve"> Signal Not Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Byteorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testBU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recBU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name / Phys. Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function / Increment Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame.is_fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testFrame1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">someTestSignal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi
+    <t>Byteorder</t>
+  </si>
+  <si>
+    <t>testBU</t>
+  </si>
+  <si>
+    <t>recBU</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Name / Phys. Range</t>
+  </si>
+  <si>
+    <t>Function / Increment Unit</t>
+  </si>
+  <si>
+    <t>frame.is_fd</t>
+  </si>
+  <si>
+    <t>signal.offset</t>
+  </si>
+  <si>
+    <t>123h</t>
+  </si>
+  <si>
+    <t>testFrame1</t>
+  </si>
+  <si>
+    <t>someTestSignal</t>
+  </si>
+  <si>
+    <t>Multi
 Line
 Signal comment with a-umlaut: ä</t>
   </si>
@@ -102,56 +102,56 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5  specialCharUnit°$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">someUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>0..500</t>
+  </si>
+  <si>
+    <t>5  specialCharUnit°$</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>someUnit</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>Cyclic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -160,22 +160,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -205,80 +190,43 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -337,42 +285,336 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S6" activeCellId="0" sqref="S6"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9716599190283"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.9716599190283"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.8016194331984"/>
-    <col collapsed="false" hidden="false" max="15" min="10" style="0" width="5.29959514170041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.30364372469636"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="26.9716599190283"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="23.336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.9109311740891"/>
+    <col min="1" max="1" width="5.33203125"/>
+    <col min="2" max="2" width="27"/>
+    <col min="3" max="3" width="5.33203125"/>
+    <col min="4" max="4" width="16"/>
+    <col min="5" max="7" width="5.33203125"/>
+    <col min="8" max="8" width="27"/>
+    <col min="9" max="9" width="31.77734375"/>
+    <col min="10" max="15" width="5.33203125"/>
+    <col min="16" max="16" width="8.33203125"/>
+    <col min="17" max="17" width="27"/>
+    <col min="18" max="18" width="23.33203125"/>
+    <col min="19" max="19" width="12.21875"/>
+    <col min="20" max="1025" width="10.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" ht="120" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,29 +669,31 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:20" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -458,7 +702,7 @@
       <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -483,36 +727,36 @@
       <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="3" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -530,7 +774,7 @@
       <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -539,36 +783,36 @@
       <c r="R3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="4" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>100</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -586,7 +830,7 @@
       <c r="O4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -595,36 +839,36 @@
       <c r="R4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="5" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>100</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -642,7 +886,7 @@
       <c r="O5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -651,14 +895,14 @@
       <c r="R5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -680,12 +924,7 @@
       <c r="S6" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>